--- a/Code/Todo.xlsx
+++ b/Code/Todo.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Material" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Platform</t>
   </si>
@@ -66,6 +67,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/intersection-of-two-arrays-ii/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/container-with-most-water/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-two-sorted-lists/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-sorted-array/ </t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/two-pointer-approach-python-code-f3986b602640</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
   </si>
 </sst>
 </file>
@@ -424,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +558,70 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>350</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -542,8 +631,49 @@
     <hyperlink ref="C7" r:id="rId5"/>
     <hyperlink ref="C8" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>